--- a/excel/exported/ingredient_types.xlsx
+++ b/excel/exported/ingredient_types.xlsx
@@ -13,15 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>Kopi Biji</t>
+    <t>Kopi</t>
   </si>
   <si>
-    <t>2020-11-04 23:46:28.0000000</t>
+    <t>2021-03-27 11:46:20.0000000</t>
   </si>
   <si>
     <t>S</t>
@@ -30,19 +30,16 @@
     <t>Bahan Pembantu</t>
   </si>
   <si>
-    <t>2020-11-04 23:46:37.0000000</t>
+    <t>2021-03-27 11:46:30.0000000</t>
   </si>
   <si>
-    <t>J</t>
+    <t>G</t>
   </si>
   <si>
-    <t>Godok/ Bahan Pembantu (SJA 2)</t>
+    <t>Godok</t>
   </si>
   <si>
-    <t>2020-11-05 06:46:48.0000000</t>
-  </si>
-  <si>
-    <t>2020-11-10 19:57:28.0000000</t>
+    <t>2021-03-27 11:47:25.0000000</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -137,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exported/ingredient_types.xlsx
+++ b/excel/exported/ingredient_types.xlsx
@@ -13,15 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>Kopi</t>
+    <t>Kopi Biji</t>
   </si>
   <si>
-    <t>2021-03-27 11:46:20.0000000</t>
+    <t>2020-11-04 23:46:28.0000000</t>
   </si>
   <si>
     <t>S</t>
@@ -30,16 +30,19 @@
     <t>Bahan Pembantu</t>
   </si>
   <si>
-    <t>2021-03-27 11:46:30.0000000</t>
+    <t>2020-11-04 23:46:37.0000000</t>
   </si>
   <si>
-    <t>G</t>
+    <t>J</t>
   </si>
   <si>
-    <t>Godok</t>
+    <t>Godok/ Bahan Pembantu (SJA 2)</t>
   </si>
   <si>
-    <t>2021-03-27 11:47:25.0000000</t>
+    <t>2020-11-05 06:46:48.0000000</t>
+  </si>
+  <si>
+    <t>2020-11-10 19:57:28.0000000</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -134,7 +137,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
